--- a/biology/Botanique/Basella_alba/Basella_alba.xlsx
+++ b/biology/Botanique/Basella_alba/Basella_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Basella alba, la baselle ou épinard de Malabar, est une espèce de plantes dicotylédones de la famille des Basellaceae, probablement originaire d'Asie du Sud. Ce sont des plantes herbacées grimpantes, vivaces à courte durée de vie, à petites fleurs groupées en épis axillaires. Les feuilles charnues sont comestibles et constituent un substitut de l'épinard. L'espèce est largement cultivée dans les régions tropicales.
 </t>
@@ -513,15 +525,125 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme une liane pouvant atteindre 10 mètres de long[1], comme une plante herbacée de 1 à 6 m de haut au port vigoureux, aux ramifications multiples, rampante avec des plantules courbées dans tous les sens[2].
-Feuilles
-Les feuilles ovales, pointues, arrondies en cœur atteigne de 5 à 15 cm de long et de 4 à 13,5 cm de large[1],[3]. Elles sont vert clair souvent légèrement teintées de rouge.
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme une liane pouvant atteindre 10 mètres de long, comme une plante herbacée de 1 à 6 m de haut au port vigoureux, aux ramifications multiples, rampante avec des plantules courbées dans tous les sens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Basella_alba</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basella_alba</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles ovales, pointues, arrondies en cœur atteigne de 5 à 15 cm de long et de 4 à 13,5 cm de large,. Elles sont vert clair souvent légèrement teintées de rouge.
 .
-Fleurs
-Les fleurs sont blanches verdâtres, roses ou pourpres, disposées sur des épis à long pédoncule[1]. Le calice est charnu[3].
-Fruits
-Les fruits, qui comportent chacun une graine, ont un diamètre environnant le demi centimètre ; ils sont de couleur rouge à noire[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Basella_alba</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basella_alba</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches verdâtres, roses ou pourpres, disposées sur des épis à long pédoncule. Le calice est charnu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Basella_alba</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basella_alba</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits, qui comportent chacun une graine, ont un diamètre environnant le demi centimètre ; ils sont de couleur rouge à noire.
 			Aspect général.
 			Tige et feuilles.
 			Inflorescence.
@@ -530,85 +652,165 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Basella_alba</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Basella_alba</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentation
-Basella alba est cultivée comme légume-feuille et comme plante ornementale dans les tropiques.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basella alba est cultivée comme légume-feuille et comme plante ornementale dans les tropiques.
 Elle est notamment appréciée dans la cuisine chinoise et japonaise.
 À La Réunion, elle est consommée en brède et appelée « brède gandole » ou « brède tali ».
-Les tiges et feuilles contiennent des taux significatifs d'acide oxalique, notamment déconseillé pour les personnes souffrant de calculs rénaux, de goutte ou d'arthrite. Ces taux peuvent être nettement diminués par une cuisson de 20 min à la vapeur (plutôt qu'une cuisson à l'eau bouillante)[4].
-Teinture
-Les fruits produisent une teinture utilisée traditionnellement par les Kanak[5].
+Les tiges et feuilles contiennent des taux significatifs d'acide oxalique, notamment déconseillé pour les personnes souffrant de calculs rénaux, de goutte ou d'arthrite. Ces taux peuvent être nettement diminués par une cuisson de 20 min à la vapeur (plutôt qu'une cuisson à l'eau bouillante).
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Basella_alba</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Basella_alba</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Teinture</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits produisent une teinture utilisée traditionnellement par les Kanak.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Basella_alba</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basella_alba</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Synonymes
-Selon The Plant List            (3 avril 2019)[6] :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (3 avril 2019) :
 Basella alba var. cordifolia (Lam.) M.R.Almeida
-Basella alba L.[7]
+Basella alba L.
 Basella cananifolia Buch.-Ham. ex Wall.
-Basella cordifolia Lam.[8]
+Basella cordifolia Lam.
 Basella japonica Burm.f.
 Basella lucida L.
 Basella nigra Lour.
 Basella ramosa J.Jacq. ex Spreng.
-Basella rubra L. (préféré par BioLib)[7]
+Basella rubra L. (préféré par BioLib)
 Basella volubilis Salisb.
 Gandola nigra (Lour.) Raf.
 Gandola rubra Rumph. ex L.
-Liste des variétés
-Selon Tropicos                                           (3 avril 2019)[9] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Basella_alba</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basella_alba</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (3 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Basella alba var. subcordata Hassk.
 Basella alba var. subrotunda Moq.</t>
         </is>
